--- a/data/trans_media/Q20A-Estudios-trans_media.xlsx
+++ b/data/trans_media/Q20A-Estudios-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 2,33</t>
+          <t>1,5; 2,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,21; 1,48</t>
+          <t>1,19; 1,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,36; 2,75</t>
+          <t>1,35; 2,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,12 +744,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,37; 2,18</t>
+          <t>1,39; 2,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,21; 1,69</t>
+          <t>1,21; 1,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,51; 2,08</t>
+          <t>1,48; 2,11</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,24; 1,52</t>
+          <t>1,24; 1,54</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,31; 1,91</t>
+          <t>1,31; 1,9</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,19</t>
+          <t>1,02; 1,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,35; 3,53</t>
+          <t>1,36; 3,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,33</t>
+          <t>1,08; 1,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,05; 1,22</t>
+          <t>1,05; 1,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 1,39</t>
+          <t>1,17; 1,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,11; 1,31</t>
+          <t>1,1; 1,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,12 +904,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,05; 1,17</t>
+          <t>1,05; 1,18</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,29; 2,06</t>
+          <t>1,29; 2,26</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,85</t>
+          <t>1,21; 2,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,54</t>
+          <t>1,07; 1,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,06; 1,49</t>
+          <t>1,06; 1,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,06; 1,4</t>
+          <t>1,07; 1,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,22; 1,96</t>
+          <t>1,21; 1,98</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 1,35</t>
+          <t>1,05; 1,39</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,35</t>
+          <t>1,1; 1,37</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,35; 1,86</t>
+          <t>1,35; 1,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,31; 2,51</t>
+          <t>1,31; 2,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,23; 1,7</t>
+          <t>1,25; 1,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,23; 1,56</t>
+          <t>1,23; 1,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,16; 1,36</t>
+          <t>1,16; 1,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,31; 1,58</t>
+          <t>1,3; 1,6</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,28; 1,69</t>
+          <t>1,28; 1,71</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,22; 1,41</t>
+          <t>1,21; 1,41</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
